--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/ReporteExistencia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/ReporteExistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80F822-CCA0-4ECD-A295-1A19C51244A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209D3CB-3869-41D2-8A00-9E91070B7642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17978276-724C-470E-B2DA-8DE720BAE59C}"/>
   </bookViews>
@@ -111,6 +111,8 @@
     <definedName name="CO">[5]corcerviz!$A$8:$T$38</definedName>
     <definedName name="CONCERDIESEL">#REF!</definedName>
     <definedName name="CORD2">#REF!</definedName>
+    <definedName name="Datos_Item">REPORTE!$A$9:$F$9</definedName>
+    <definedName name="Datos_Items">REPORTE!$A$9:$F$9</definedName>
     <definedName name="DDD">#REF!</definedName>
     <definedName name="DDDD">#REF!</definedName>
     <definedName name="DESPACHO">#REF!</definedName>
@@ -120,7 +122,7 @@
     <definedName name="HORARIO">#REF!</definedName>
     <definedName name="HORAS">#REF!</definedName>
     <definedName name="INVROMT">#REF!</definedName>
-    <definedName name="Items_Datos">REPORTE!$A$7:$F$7</definedName>
+    <definedName name="Items_Datos">REPORTE!$A$9:$F$9</definedName>
     <definedName name="MAR">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -204,12 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>REPORTE DE EXISTENCIA DIARIA STOCK NACIONAL
-GAS LICUADO DE PETROLEO (GLP)
-PLANTA DE PROCESAMIENTO DE GAS NATURAL PARIÑAS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FECHA:</t>
   </si>
@@ -262,6 +259,33 @@
   <si>
     <t>{{Fecha}}</t>
   </si>
+  <si>
+    <t>{{NombreReporte}}</t>
+  </si>
+  <si>
+    <t>{{Detalle}}</t>
+  </si>
+  <si>
+    <t>{{Compania}}</t>
+  </si>
+  <si>
+    <t>{{item.RazonSocial}}</t>
+  </si>
+  <si>
+    <t>{{item.CodigoOsinergmin}}</t>
+  </si>
+  <si>
+    <t>{{item.NroRegistroHidrocarburo}}</t>
+  </si>
+  <si>
+    <t>{{item.Direccion}}</t>
+  </si>
+  <si>
+    <t>{{item.CapacidadInstalada}}</t>
+  </si>
+  <si>
+    <t>{{item.ExistenciaDiaria}}</t>
+  </si>
 </sst>
 </file>
 
@@ -311,7 +335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -454,12 +478,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -503,8 +607,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -27385,7 +27513,13 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="11">
+        <row r="35">
+          <cell r="E35">
+            <v>552</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -29436,10 +29570,10 @@
   <sheetPr codeName="Hoja5">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29453,88 +29587,122 @@
     <col min="7" max="16384" width="14.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
+      <c r="D9" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
+      <c r="E9" s="12" t="s">
+        <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="20"/>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/ReporteExistencia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/ReporteExistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209D3CB-3869-41D2-8A00-9E91070B7642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604CC5EE-E82F-46FA-8AFD-92C79BC407DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17978276-724C-470E-B2DA-8DE720BAE59C}"/>
   </bookViews>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FECHA:</t>
   </si>
@@ -260,15 +260,6 @@
     <t>{{Fecha}}</t>
   </si>
   <si>
-    <t>{{NombreReporte}}</t>
-  </si>
-  <si>
-    <t>{{Detalle}}</t>
-  </si>
-  <si>
-    <t>{{Compania}}</t>
-  </si>
-  <si>
     <t>{{item.RazonSocial}}</t>
   </si>
   <si>
@@ -285,6 +276,11 @@
   </si>
   <si>
     <t>{{item.ExistenciaDiaria}}</t>
+  </si>
+  <si>
+    <t>{{NombreReporte}}
+{{Detalle}}
+{{Compania}}</t>
   </si>
 </sst>
 </file>
@@ -335,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -478,92 +474,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -607,31 +523,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -29573,7 +29465,7 @@
   <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29589,33 +29481,29 @@
   <sheetData>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -29646,24 +29534,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="F9" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -29699,10 +29587,8 @@
       <c r="D26" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
